--- a/sales_related/ReferenceTable/20220721_PCODE整理表.xlsx
+++ b/sales_related/ReferenceTable/20220721_PCODE整理表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kc.hsu\Python workspace\sales_related\ReferenceTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D192E08-952E-43EB-A61C-7D43B09A4DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF184BE-E272-4283-940F-457FAED4F09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="295">
   <si>
     <t>group</t>
   </si>
@@ -935,6 +935,26 @@
   </si>
   <si>
     <t>G540</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBR0J591</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBR3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBR0J591</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12R22.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1322,11 +1342,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H166"/>
+  <dimension ref="A1:H167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C159" sqref="C159"/>
+      <pane ySplit="1" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D162" sqref="D162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -5625,6 +5645,32 @@
         <v>259</v>
       </c>
     </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A167" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="H167" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H166" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/sales_related/ReferenceTable/20220721_PCODE整理表.xlsx
+++ b/sales_related/ReferenceTable/20220721_PCODE整理表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kc.hsu\Python workspace\sales_related\ReferenceTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF184BE-E272-4283-940F-457FAED4F09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD3432F-A1A9-416B-8009-F613D7BA780A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,27 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$166</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$170</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="298">
   <si>
     <t>group</t>
   </si>
@@ -955,6 +968,18 @@
   </si>
   <si>
     <t>12R22.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSR08406</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSR03743</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBR0J814</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -962,7 +987,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -993,6 +1018,19 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="BridgestoneType Cd"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="BridgestoneType"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1028,10 +1066,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1040,9 +1081,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="一般 31" xfId="1" xr:uid="{74221D27-56D2-4AD4-985A-54BFE7540CA6}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1342,11 +1387,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H167"/>
+  <dimension ref="A1:H170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D162" sqref="D162"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -1354,7 +1399,7 @@
     <col min="1" max="1" width="6.59765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.8984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.8984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.19921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.09765625" bestFit="1" customWidth="1"/>
@@ -2100,7 +2145,7 @@
         <v>61</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>61</v>
+        <v>297</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>55</v>
@@ -5235,7 +5280,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>8</v>
       </c>
@@ -5245,7 +5290,9 @@
       <c r="C150" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="D150" s="2"/>
+      <c r="D150" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="E150" s="2" t="s">
         <v>249</v>
       </c>
@@ -5259,7 +5306,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>8</v>
       </c>
@@ -5269,7 +5316,9 @@
       <c r="C151" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D151" s="2"/>
+      <c r="D151" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="E151" s="2" t="s">
         <v>249</v>
       </c>
@@ -5293,7 +5342,9 @@
       <c r="C152" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="D152" s="2"/>
+      <c r="D152" s="3" t="s">
+        <v>245</v>
+      </c>
       <c r="E152" s="2" t="s">
         <v>250</v>
       </c>
@@ -5317,7 +5368,9 @@
       <c r="C153" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="D153" s="2"/>
+      <c r="D153" s="3" t="s">
+        <v>263</v>
+      </c>
       <c r="E153" s="2" t="s">
         <v>254</v>
       </c>
@@ -5341,7 +5394,9 @@
       <c r="C154" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="D154" s="2"/>
+      <c r="D154" s="3" t="s">
+        <v>257</v>
+      </c>
       <c r="E154" s="2" t="s">
         <v>258</v>
       </c>
@@ -5365,7 +5420,9 @@
       <c r="C155" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="D155" s="2"/>
+      <c r="D155" s="3" t="s">
+        <v>260</v>
+      </c>
       <c r="E155" s="2" t="s">
         <v>261</v>
       </c>
@@ -5389,7 +5446,9 @@
       <c r="C156" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D156" s="2"/>
+      <c r="D156" s="3" t="s">
+        <v>264</v>
+      </c>
       <c r="E156" s="2" t="s">
         <v>254</v>
       </c>
@@ -5413,7 +5472,9 @@
       <c r="C157" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="D157" s="2"/>
+      <c r="D157" s="3" t="s">
+        <v>266</v>
+      </c>
       <c r="E157" s="2" t="s">
         <v>249</v>
       </c>
@@ -5437,7 +5498,9 @@
       <c r="C158" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D158" s="2"/>
+      <c r="D158" s="3" t="s">
+        <v>268</v>
+      </c>
       <c r="E158" s="2" t="s">
         <v>249</v>
       </c>
@@ -5461,7 +5524,9 @@
       <c r="C159" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="D159" s="2"/>
+      <c r="D159" s="3" t="s">
+        <v>269</v>
+      </c>
       <c r="E159" s="2" t="s">
         <v>270</v>
       </c>
@@ -5485,7 +5550,9 @@
       <c r="C160" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="D160" s="2"/>
+      <c r="D160" s="3" t="s">
+        <v>273</v>
+      </c>
       <c r="E160" s="2" t="s">
         <v>250</v>
       </c>
@@ -5509,7 +5576,9 @@
       <c r="C161" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="D161" s="2"/>
+      <c r="D161" s="3" t="s">
+        <v>275</v>
+      </c>
       <c r="E161" s="2" t="s">
         <v>276</v>
       </c>
@@ -5533,7 +5602,9 @@
       <c r="C162" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="D162" s="2"/>
+      <c r="D162" s="3" t="s">
+        <v>246</v>
+      </c>
       <c r="E162" s="2" t="s">
         <v>277</v>
       </c>
@@ -5557,7 +5628,9 @@
       <c r="C163" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="D163" s="2"/>
+      <c r="D163" s="3" t="s">
+        <v>247</v>
+      </c>
       <c r="E163" s="2" t="s">
         <v>279</v>
       </c>
@@ -5581,7 +5654,9 @@
       <c r="C164" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="D164" s="2"/>
+      <c r="D164" s="3" t="s">
+        <v>280</v>
+      </c>
       <c r="E164" s="2" t="s">
         <v>249</v>
       </c>
@@ -5605,7 +5680,9 @@
       <c r="C165" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="D165" s="2"/>
+      <c r="D165" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="E165" s="2" t="s">
         <v>283</v>
       </c>
@@ -5671,8 +5748,86 @@
         <v>259</v>
       </c>
     </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A168" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H168" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A169" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H169" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A170" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H170" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H166" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H170" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/sales_related/ReferenceTable/20220721_PCODE整理表.xlsx
+++ b/sales_related/ReferenceTable/20220721_PCODE整理表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kc.hsu\Python workspace\sales_related\ReferenceTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD3432F-A1A9-416B-8009-F613D7BA780A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB9FD00-44B3-407B-8E6A-7099371B0DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="304">
   <si>
     <t>group</t>
   </si>
@@ -980,6 +980,30 @@
   </si>
   <si>
     <t>TBR0J814</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>315/80R22.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BTMT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBR0J795</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBR0J796</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1387,11 +1411,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H170"/>
+  <dimension ref="A1:H171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
+      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E166" sqref="E166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -5826,6 +5850,32 @@
         <v>14</v>
       </c>
     </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A171" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="H171" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H170" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
